--- a/p.xlsx
+++ b/p.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quinnvinlove/Documents/sugarsBio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BFAC131-7807-C94D-9C38-A1A3F59D683C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFE6026-BD60-6643-83C6-D25A394733D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9260" yWindow="460" windowWidth="27640" windowHeight="16540" xr2:uid="{DDC936F9-5CEF-9141-9996-3F2EC836A209}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16540" xr2:uid="{DDC936F9-5CEF-9141-9996-3F2EC836A209}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Compound</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Met</t>
   </si>
   <si>
-    <t>nLeu</t>
-  </si>
-  <si>
     <t>Phe</t>
   </si>
   <si>
@@ -92,13 +86,7 @@
     <t>Val</t>
   </si>
   <si>
-    <t>AA1</t>
-  </si>
-  <si>
-    <t>AA2</t>
-  </si>
-  <si>
-    <t>SN</t>
+    <t>nle</t>
   </si>
 </sst>
 </file>
@@ -450,408 +438,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55277AFC-70FB-9C43-96A1-F11C6F41B7E1}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
+      <c r="B2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36">
-        <v>0.5</v>
+      <c r="B17">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
